--- a/Data/Part Time 20-4 Sch Rule Automation FileMK.xlsx
+++ b/Data/Part Time 20-4 Sch Rule Automation FileMK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C51B4-A770-4E1F-AB31-BB8329C46A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4325216-EF85-4C67-8735-9E03458F187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>EmpNum</t>
   </si>
@@ -47,9 +47,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>which is less than the daily minimum of 4:00 hours.</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Less than the weekly minimum of 20:00 hours.</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>which is less than the weekly minimum of 20:00 hours.</t>
@@ -628,7 +622,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.453125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -684,16 +678,14 @@
       <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>10698928</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>8</v>
@@ -705,18 +697,16 @@
         <v>45779</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>10698928</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -730,16 +720,14 @@
       <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>10698928</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
@@ -751,21 +739,19 @@
         <v>45795</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>10698928</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12">
         <v>45796</v>
@@ -776,16 +762,14 @@
       <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>10698928</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>8</v>
@@ -799,16 +783,14 @@
       <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10698928</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
@@ -820,21 +802,19 @@
         <v>45816</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>10698928</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>45797</v>
@@ -843,18 +823,16 @@
         <v>45797</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>10698928</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -868,16 +846,14 @@
       <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10698928</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>8</v>
@@ -889,18 +865,16 @@
         <v>45817</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10698928</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
@@ -914,16 +888,14 @@
       <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10698928</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -935,21 +907,19 @@
         <v>45819</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10698928</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12">
         <v>45820</v>
@@ -960,19 +930,17 @@
       <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>10698928</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45821</v>
@@ -981,21 +949,19 @@
         <v>45821</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>10698928</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="12">
         <v>45824</v>
@@ -1004,21 +970,19 @@
         <v>45830</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>10698928</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12">
         <v>45831</v>
@@ -1029,16 +993,14 @@
       <c r="F17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>10698928</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>8</v>
@@ -1052,16 +1014,14 @@
       <c r="F18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10698928</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>8</v>
@@ -1073,18 +1033,16 @@
         <v>45858</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>10698928</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>8</v>
@@ -1098,16 +1056,14 @@
       <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>10698928</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>8</v>
@@ -1119,18 +1075,16 @@
         <v>45886</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>10698928</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>8</v>
@@ -1144,16 +1098,14 @@
       <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10698928</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>8</v>
@@ -1165,11 +1117,9 @@
         <v>45914</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
